--- a/Data/fixed assets.xlsx
+++ b/Data/fixed assets.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="20460" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="wearout by ec.act." sheetId="1" r:id="rId1"/>
@@ -12,11 +17,19 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Agriculture</t>
   </si>
@@ -54,27 +67,34 @@
     <t>Construction</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>Economic activity</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>Data source - Statistical Yearbook of Ukraine for 2013, p.81 library.oneu.edu.ua/files/StatSchorichnyk_Ukrainy_2013.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">wearout of fixed assets (%)
+</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total 2000</t>
+  </si>
+  <si>
+    <t>Total 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation of fixed assets (%)
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +162,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,14 +211,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -220,14 +245,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -254,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,31 +456,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +491,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +502,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -486,7 +513,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +524,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -508,7 +535,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -519,7 +546,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,7 +557,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,7 +568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -552,7 +579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -563,7 +590,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +601,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -585,7 +612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -596,7 +623,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -607,7 +634,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +645,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -629,7 +656,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,7 +667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -651,7 +678,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -662,7 +689,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -673,7 +700,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -684,7 +711,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -695,7 +722,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -706,7 +733,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -717,9 +744,9 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>2000</v>
@@ -728,9 +755,9 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>2012</v>
@@ -745,23 +772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="75">
+    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -771,12 +796,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
